--- a/processed_data/problem_1/line_11.xlsx
+++ b/processed_data/problem_1/line_11.xlsx
@@ -476,7 +476,7 @@
         <v>145</v>
       </c>
       <c r="E2" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
         <v>145</v>
       </c>
       <c r="E3" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         <v>145</v>
       </c>
       <c r="E4" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         <v>145</v>
       </c>
       <c r="E5" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
         <v>80</v>
       </c>
       <c r="E6" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
         <v>120</v>
       </c>
       <c r="E7" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         <v>145</v>
       </c>
       <c r="E8" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -644,7 +644,7 @@
         <v>145</v>
       </c>
       <c r="E9" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>120</v>
       </c>
       <c r="E10" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>120</v>
       </c>
       <c r="E11" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         <v>120</v>
       </c>
       <c r="E12" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
         <v>120</v>
       </c>
       <c r="E13" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>120</v>
       </c>
       <c r="E14" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>120</v>
       </c>
       <c r="E15" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>120</v>
       </c>
       <c r="E16" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>120</v>
       </c>
       <c r="E17" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>145</v>
       </c>
       <c r="E18" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>145</v>
       </c>
       <c r="E19" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>145</v>
       </c>
       <c r="E20" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>145</v>
       </c>
       <c r="E21" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>145</v>
       </c>
       <c r="E22" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>145</v>
       </c>
       <c r="E23" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>145</v>
       </c>
       <c r="E24" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>145</v>
       </c>
       <c r="E25" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>145</v>
       </c>
       <c r="E26" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>145</v>
       </c>
       <c r="E27" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>145</v>
       </c>
       <c r="E28" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>145</v>
       </c>
       <c r="E29" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>135</v>
       </c>
       <c r="E30" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>135</v>
       </c>
       <c r="E31" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>120</v>
       </c>
       <c r="E32" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>135</v>
       </c>
       <c r="E33" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>135</v>
       </c>
       <c r="E34" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>135</v>
       </c>
       <c r="E35" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>135</v>
       </c>
       <c r="E36" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>135</v>
       </c>
       <c r="E37" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>135</v>
       </c>
       <c r="E38" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>135</v>
       </c>
       <c r="E39" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>135</v>
       </c>
       <c r="E40" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>135</v>
       </c>
       <c r="E41" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>135</v>
       </c>
       <c r="E42" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>135</v>
       </c>
       <c r="E43" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>135</v>
       </c>
       <c r="E44" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>135</v>
       </c>
       <c r="E45" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>135</v>
       </c>
       <c r="E46" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>135</v>
       </c>
       <c r="E47" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>135</v>
       </c>
       <c r="E48" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>135</v>
       </c>
       <c r="E49" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>135</v>
       </c>
       <c r="E50" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         <v>135</v>
       </c>
       <c r="E51" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>135</v>
       </c>
       <c r="E52" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>135</v>
       </c>
       <c r="E53" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>135</v>
       </c>
       <c r="E54" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>135</v>
       </c>
       <c r="E55" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>135</v>
       </c>
       <c r="E56" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>135</v>
       </c>
       <c r="E57" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>135</v>
       </c>
       <c r="E58" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>135</v>
       </c>
       <c r="E59" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>135</v>
       </c>
       <c r="E60" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>135</v>
       </c>
       <c r="E61" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>135</v>
       </c>
       <c r="E62" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>135</v>
       </c>
       <c r="E63" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>135</v>
       </c>
       <c r="E64" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>135</v>
       </c>
       <c r="E65" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>135</v>
       </c>
       <c r="E66" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>135</v>
       </c>
       <c r="E67" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>135</v>
       </c>
       <c r="E68" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>135</v>
       </c>
       <c r="E69" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>135</v>
       </c>
       <c r="E70" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>135</v>
       </c>
       <c r="E71" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>135</v>
       </c>
       <c r="E72" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>135</v>
       </c>
       <c r="E73" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>135</v>
       </c>
       <c r="E74" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>120</v>
       </c>
       <c r="E75" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>135</v>
       </c>
       <c r="E76" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>135</v>
       </c>
       <c r="E77" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>150</v>
       </c>
       <c r="E78" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>135</v>
       </c>
       <c r="E79" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>135</v>
       </c>
       <c r="E80" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>135</v>
       </c>
       <c r="E81" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>135</v>
       </c>
       <c r="E82" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>150</v>
       </c>
       <c r="E83" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>135</v>
       </c>
       <c r="E84" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>135</v>
       </c>
       <c r="E85" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>135</v>
       </c>
       <c r="E86" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>135</v>
       </c>
       <c r="E87" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>135</v>
       </c>
       <c r="E88" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>135</v>
       </c>
       <c r="E89" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>135</v>
       </c>
       <c r="E90" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>135</v>
       </c>
       <c r="E91" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>135</v>
       </c>
       <c r="E92" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>135</v>
       </c>
       <c r="E93" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>135</v>
       </c>
       <c r="E94" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>135</v>
       </c>
       <c r="E95" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>135</v>
       </c>
       <c r="E96" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>135</v>
       </c>
       <c r="E97" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>135</v>
       </c>
       <c r="E98" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>135</v>
       </c>
       <c r="E99" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>135</v>
       </c>
       <c r="E100" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>135</v>
       </c>
       <c r="E101" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>135</v>
       </c>
       <c r="E102" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>135</v>
       </c>
       <c r="E103" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>135</v>
       </c>
       <c r="E104" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>135</v>
       </c>
       <c r="E105" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>135</v>
       </c>
       <c r="E106" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>135</v>
       </c>
       <c r="E107" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>135</v>
       </c>
       <c r="E108" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>135</v>
       </c>
       <c r="E109" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>30</v>
       </c>
       <c r="E110" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>120</v>
       </c>
       <c r="E111" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>120</v>
       </c>
       <c r="E112" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>135</v>
       </c>
       <c r="E113" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>135</v>
       </c>
       <c r="E114" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>135</v>
       </c>
       <c r="E115" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>135</v>
       </c>
       <c r="E116" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>135</v>
       </c>
       <c r="E117" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>135</v>
       </c>
       <c r="E118" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
